--- a/data/trans_camb/IP16A08-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP16A08-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-16,18; 13,06</t>
+          <t>-15,69; 15,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-13,14; 29,26</t>
+          <t>-12,79; 31,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-12,75; 24,06</t>
+          <t>-12,89; 24,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-15,03; 14,39</t>
+          <t>-12,77; 15,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-21,96; -2,84</t>
+          <t>-21,56; -2,89</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-24,79; -2,9</t>
+          <t>-21,68; -2,9</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-10,97; 10,53</t>
+          <t>-10,3; 10,38</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-14,67; 5,17</t>
+          <t>-13,99; 4,6</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-12,68; 10,19</t>
+          <t>-11,81; 10,82</t>
         </is>
       </c>
     </row>
@@ -1037,7 +1037,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-81,49; 324,49</t>
+          <t>-80,04; 276,31</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 342,26</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-16,07; 1,52</t>
+          <t>-15,73; 2,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-12,13; 6,62</t>
+          <t>-12,6; 6,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-17,52; -0,21</t>
+          <t>-16,36; 0,66</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-14,17; 4,92</t>
+          <t>-14,56; 4,05</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-13,66; 6,67</t>
+          <t>-13,2; 7,73</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-18,18; 0,17</t>
+          <t>-17,91; -0,34</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-12,67; -0,11</t>
+          <t>-12,58; 0,32</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-10,04; 3,92</t>
+          <t>-10,01; 3,75</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-14,7; -2,46</t>
+          <t>-15,36; -2,74</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-65,06; 12,95</t>
+          <t>-64,62; 20,13</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-50,23; 43,64</t>
+          <t>-48,75; 46,49</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-71,3; 3,22</t>
+          <t>-69,76; 5,81</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-59,38; 37,74</t>
+          <t>-59,01; 30,75</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-55,78; 50,57</t>
+          <t>-55,15; 58,23</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-76,06; 4,92</t>
+          <t>-73,22; -0,85</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-55,65; 0,04</t>
+          <t>-55,88; 2,13</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-44,22; 26,18</t>
+          <t>-44,54; 25,31</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-64,44; -12,92</t>
+          <t>-65,18; -15,79</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-13,26; 16,13</t>
+          <t>-11,2; 16,21</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-15,89; 10,23</t>
+          <t>-15,59; 8,68</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-17,01; 5,32</t>
+          <t>-17,53; 5,82</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-14,46; 10,74</t>
+          <t>-14,32; 11,3</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-8,55; 22,67</t>
+          <t>-6,65; 22,64</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-12,62; 14,38</t>
+          <t>-10,12; 14,16</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-9,08; 10,37</t>
+          <t>-9,03; 10,11</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-9,73; 11,3</t>
+          <t>-9,45; 11,54</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-11,55; 6,77</t>
+          <t>-11,1; 6,54</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-66,2; 263,53</t>
+          <t>-61,78; 296,66</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-82,75; 234,32</t>
+          <t>-82,22; 237,08</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-86,91; 137,65</t>
+          <t>-85,34; 126,81</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-86,34; 423,1</t>
+          <t>-85,42; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-67,39; 1126,55</t>
+          <t>-55,38; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-80,55; 556,08</t>
+          <t>-77,72; 540,54</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-56,89; 148,34</t>
+          <t>-53,23; 165,66</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-60,33; 170,43</t>
+          <t>-59,26; 195,24</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-70,69; 115,26</t>
+          <t>-65,34; 109,58</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-9,94; 2,88</t>
+          <t>-10,16; 3,31</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-8,5; 6,23</t>
+          <t>-7,94; 6,52</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-12,88; 0,26</t>
+          <t>-12,69; -0,02</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-10,33; 3,52</t>
+          <t>-10,06; 3,21</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-8,97; 5,47</t>
+          <t>-9,49; 6,78</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-12,7; 0,73</t>
+          <t>-12,3; 1,52</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-8,3; 1,33</t>
+          <t>-8,37; 1,22</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-6,48; 3,65</t>
+          <t>-6,56; 3,22</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-10,77; -1,47</t>
+          <t>-10,46; -1,14</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-50,91; 24,39</t>
+          <t>-51,08; 27,45</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-44,36; 46,87</t>
+          <t>-42,72; 46,95</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-62,77; 1,82</t>
+          <t>-62,88; 3,15</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-55,29; 30,31</t>
+          <t>-53,76; 30,03</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-46,63; 45,61</t>
+          <t>-50,05; 58,37</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-64,17; 7,45</t>
+          <t>-63,06; 18,52</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-44,87; 9,83</t>
+          <t>-45,45; 9,75</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-35,57; 27,33</t>
+          <t>-35,59; 26,35</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-57,43; -9,22</t>
+          <t>-56,97; -9,46</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP16A08-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP16A08-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-9,1</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-9,1</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,44</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,35</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-5,44</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-3,32</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,95; 14,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,52; -2,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,58; -2,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,25; 13,8</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,89; 27,86</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,95; 24,21</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,73; 10,36</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,91; 4,9</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,58; 9,14</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,04%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,4%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,7%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,69%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,18%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-62,74%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-38,25%</t>
         </is>
       </c>
     </row>
@@ -821,7 +821,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-80,02; 379,47</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,44</t>
+          <t>-5,11</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>-3,29</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,91</t>
+          <t>-10,44</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>-7,18</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-9,1</t>
+          <t>-2,43</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-9,1</t>
+          <t>-8,6</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>-6,2</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-5,44</t>
+          <t>-2,86</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-2,57</t>
+          <t>-9,54</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-15,69; 15,18</t>
+          <t>-15,43; 3,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-12,79; 31,59</t>
+          <t>-14,73; 4,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-12,89; 24,59</t>
+          <t>-20,46; -1,95</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-12,77; 15,32</t>
+          <t>-16,18; 0,65</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-21,56; -2,89</t>
+          <t>-11,94; 7,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-21,68; -2,9</t>
+          <t>-17,0; -0,29</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-10,3; 10,38</t>
+          <t>-12,35; 0,95</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-13,99; 4,6</t>
+          <t>-9,82; 4,01</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-11,81; 10,82</t>
+          <t>-16,29; -3,44</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-5,4%</t>
+          <t>-26,91%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,7%</t>
+          <t>-17,36%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>35,49%</t>
+          <t>-55,02%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,04%</t>
+          <t>-36,52%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-12,34%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-43,77%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,18%</t>
+          <t>-32,09%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-62,74%</t>
+          <t>-14,8%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-29,65%</t>
+          <t>-49,36%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,73; 27,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,78; 34,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,01; -13,58</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,57; 8,42</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,1; 52,2</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,76; 5,9</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-80,04; 276,31</t>
+          <t>-54,37; 6,19</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,02; 25,84</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,52; -19,56</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-7,18</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,43</t>
+          <t>6,95</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-8,48</t>
+          <t>2,15</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-5,11</t>
+          <t>2,61</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-3,29</t>
+          <t>-3,35</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-8,76</t>
+          <t>-4,88</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-6,2</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-2,86</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-8,61</t>
+          <t>-1,86</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-15,73; 2,41</t>
+          <t>-15,81; 11,67</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-12,6; 6,49</t>
+          <t>-7,63; 23,68</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-16,36; 0,66</t>
+          <t>-12,7; 13,52</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-14,56; 4,05</t>
+          <t>-9,95; 15,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-13,2; 7,73</t>
+          <t>-15,5; 10,12</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-17,91; -0,34</t>
+          <t>-16,8; 4,65</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-12,58; 0,32</t>
+          <t>-7,9; 10,33</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-10,01; 3,75</t>
+          <t>-8,47; 11,77</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-15,36; -2,74</t>
+          <t>-10,65; 7,05</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-36,52%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-12,34%</t>
+          <t>76,54%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-43,15%</t>
+          <t>23,68%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-26,91%</t>
+          <t>20,39%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-17,36%</t>
+          <t>-26,12%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-46,18%</t>
+          <t>-38,07%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-32,09%</t>
+          <t>9,69%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-14,8%</t>
+          <t>12,2%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-44,53%</t>
+          <t>-16,42%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-64,62; 20,13</t>
+          <t>-84,4; 456,65</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-48,75; 46,49</t>
+          <t>-63,68; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-69,76; 5,81</t>
+          <t>-76,71; 539,52</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-59,01; 30,75</t>
+          <t>-62,52; 218,4</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-55,15; 58,23</t>
+          <t>-85,88; 217,53</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-73,22; -0,85</t>
+          <t>-86,71; 89,22</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-55,88; 2,13</t>
+          <t>-54,01; 159,35</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-44,54; 25,31</t>
+          <t>-55,4; 184,76</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-65,18; -15,79</t>
+          <t>-64,98; 107,23</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,61</t>
+          <t>-3,39</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-3,35</t>
+          <t>-1,63</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-4,65</t>
+          <t>-7,02</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>-3,66</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>6,95</t>
+          <t>-1,52</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,32</t>
+          <t>-6,14</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>-3,55</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1,39</t>
+          <t>-1,61</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-1,62</t>
+          <t>-6,6</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-11,2; 16,21</t>
+          <t>-10,6; 3,17</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-15,59; 8,68</t>
+          <t>-9,21; 6,01</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-17,53; 5,82</t>
+          <t>-14,82; -0,96</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-14,32; 11,3</t>
+          <t>-10,52; 2,55</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,65; 22,64</t>
+          <t>-8,38; 5,41</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-10,12; 14,16</t>
+          <t>-12,59; 0,86</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-9,03; 10,11</t>
+          <t>-8,14; 1,28</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-9,45; 11,54</t>
+          <t>-6,59; 4,17</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-11,1; 6,54</t>
+          <t>-11,34; -1,92</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>20,39%</t>
+          <t>-21,95%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-26,12%</t>
+          <t>-10,54%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-36,31%</t>
+          <t>-45,44%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>1,78%</t>
+          <t>-22,39%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>76,54%</t>
+          <t>-9,33%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>25,59%</t>
+          <t>-37,53%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>9,69%</t>
+          <t>-22,25%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>12,2%</t>
+          <t>-10,14%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-14,28%</t>
+          <t>-41,41%</t>
         </is>
       </c>
     </row>
@@ -1439,282 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-61,78; 296,66</t>
+          <t>-52,17; 27,69</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-82,22; 237,08</t>
+          <t>-48,12; 50,37</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-85,34; 126,81</t>
+          <t>-75,9; -7,28</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-85,42; —</t>
+          <t>-51,85; 20,13</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-55,38; —</t>
+          <t>-43,23; 42,58</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-77,72; 540,54</t>
+          <t>-63,83; 6,45</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-53,23; 165,66</t>
+          <t>-45,67; 9,96</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-59,26; 195,24</t>
+          <t>-35,38; 31,22</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-65,34; 109,58</t>
+          <t>-61,24; -13,65</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>-3,58</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-1,44</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-5,86</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>-3,39</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>-1,63</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>-5,71</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>-3,5</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>-1,57</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>-5,79</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-10,16; 3,31</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-7,94; 6,52</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-12,69; -0,02</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>-10,06; 3,21</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>-9,49; 6,78</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>-12,3; 1,52</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>-8,37; 1,22</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>-6,56; 3,22</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>-10,46; -1,14</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>-21,99%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-8,87%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-36,04%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>-21,95%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>-10,54%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>-36,93%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>-22,04%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>-9,89%</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>-36,47%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-51,08; 27,45</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-42,72; 46,95</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-62,88; 3,15</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>-53,76; 30,03</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>-50,05; 58,37</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>-63,06; 18,52</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>-45,45; 9,75</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>-35,59; 26,35</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>-56,97; -9,46</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
